--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 24647-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 24647-2022.xlsx", "A 24647-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 24647-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 24647-2022.png", "A 24647-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 24647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 24647-2022.docx", "A 24647-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 24647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 24647-2022.docx", "A 24647-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 24647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 24647-2022.docx", "A 24647-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 24647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 24647-2022.docx", "A 24647-2022")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,27 +724,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 6056-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 6056-2023.xlsx", "A 6056-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 6056-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 6056-2023.png", "A 6056-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 6056-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 6056-2023.docx", "A 6056-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 6056-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 6056-2023.docx", "A 6056-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 6056-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 6056-2023.docx", "A 6056-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 6056-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 6056-2023.docx", "A 6056-2023")</f>
         <v/>
       </c>
     </row>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -813,27 +813,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 39855-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 39855-2022.xlsx", "A 39855-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 39855-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 39855-2022.png", "A 39855-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 39855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 39855-2022.docx", "A 39855-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 39855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 39855-2022.docx", "A 39855-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 39855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 39855-2022.docx", "A 39855-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 39855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 39855-2022.docx", "A 39855-2022")</f>
         <v/>
       </c>
     </row>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -901,27 +901,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 28963-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 28963-2023.xlsx", "A 28963-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 28963-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 28963-2023.png", "A 28963-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 28963-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 28963-2023.docx", "A 28963-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 28963-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 28963-2023.docx", "A 28963-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 28963-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 28963-2023.docx", "A 28963-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 28963-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 28963-2023.docx", "A 28963-2023")</f>
         <v/>
       </c>
     </row>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -988,27 +988,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 31351-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 31351-2022.xlsx", "A 31351-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 31351-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 31351-2022.png", "A 31351-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 31351-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 31351-2022.docx", "A 31351-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 31351-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 31351-2022.docx", "A 31351-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 31351-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 31351-2022.docx", "A 31351-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 31351-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 31351-2022.docx", "A 31351-2022")</f>
         <v/>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1074,27 +1074,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 38525-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 38525-2019.xlsx", "A 38525-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 38525-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 38525-2019.png", "A 38525-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 38525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 38525-2019.docx", "A 38525-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 38525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 38525-2019.docx", "A 38525-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 38525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 38525-2019.docx", "A 38525-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 38525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 38525-2019.docx", "A 38525-2019")</f>
         <v/>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,27 +1160,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 6547-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 6547-2020.xlsx", "A 6547-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 6547-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 6547-2020.png", "A 6547-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 6547-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 6547-2020.docx", "A 6547-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 6547-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 6547-2020.docx", "A 6547-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 6547-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 6547-2020.docx", "A 6547-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 6547-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 6547-2020.docx", "A 6547-2020")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,27 +1245,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 24158-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 24158-2022.xlsx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 24158-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 24158-2022.png", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 24158-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 24158-2022.docx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 24158-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 24158-2022.docx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 24158-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 24158-2022.docx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 24158-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 24158-2022.docx", "A 24158-2022")</f>
         <v/>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1335,27 +1335,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 45334-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 45334-2022.xlsx", "A 45334-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 45334-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 45334-2022.png", "A 45334-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 45334-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 45334-2022.docx", "A 45334-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 45334-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 45334-2022.docx", "A 45334-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 45334-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 45334-2022.docx", "A 45334-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 45334-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 45334-2022.docx", "A 45334-2022")</f>
         <v/>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,27 +1420,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 113-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/artfynd/A 113-2023.xlsx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 113-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/kartor/A 113-2023.png", "A 113-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomål/A 113-2023.docx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/klagomålsmail/A 113-2023.docx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsyn/A 113-2023.docx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HORBY/tillsynsmail/A 113-2023.docx", "A 113-2023")</f>
         <v/>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y121"/>
+  <dimension ref="A1:Y126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="R120" s="2" t="inlineStr"/>
     </row>
-    <row r="121">
+    <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
           <t>A 37086-2023</t>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7808,6 +7808,296 @@
         <v>0</v>
       </c>
       <c r="R121" s="2" t="inlineStr"/>
+    </row>
+    <row r="122" ht="15" customHeight="1">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>A 43879-2023</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" s="2" t="inlineStr"/>
+    </row>
+    <row r="123" ht="15" customHeight="1">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>A 43932-2023</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>3</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" s="2" t="inlineStr"/>
+    </row>
+    <row r="124" ht="15" customHeight="1">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>A 43939-2023</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" s="2" t="inlineStr"/>
+    </row>
+    <row r="125" ht="15" customHeight="1">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>A 43937-2023</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" s="2" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>A 43935-2023</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45187</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45187</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45187</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45187</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45187</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y126"/>
+  <dimension ref="A1:Y127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45187</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45187</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45187</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45187</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="R125" s="2" t="inlineStr"/>
     </row>
-    <row r="126">
+    <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
           <t>A 43935-2023</t>
@@ -8052,7 +8052,7 @@
         <v>45187</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8098,6 +8098,68 @@
         <v>0</v>
       </c>
       <c r="R126" s="2" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>A 44613-2023</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45187</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45187</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45187</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45187</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45187</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45187</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45187</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45187</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45187</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45187</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45187</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45187</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45187</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45187</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45187</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y127"/>
+  <dimension ref="A1:Y132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45187</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45187</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45187</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45187</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45187</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="R126" s="2" t="inlineStr"/>
     </row>
-    <row r="127">
+    <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
           <t>A 44613-2023</t>
@@ -8109,7 +8109,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8160,6 +8160,291 @@
         <v>0</v>
       </c>
       <c r="R127" s="2" t="inlineStr"/>
+    </row>
+    <row r="128" ht="15" customHeight="1">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>A 47609-2023</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" s="2" t="inlineStr"/>
+    </row>
+    <row r="129" ht="15" customHeight="1">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>A 47647-2023</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" s="2" t="inlineStr"/>
+    </row>
+    <row r="130" ht="15" customHeight="1">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>A 47612-2023</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" s="2" t="inlineStr"/>
+    </row>
+    <row r="131" ht="15" customHeight="1">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>A 47637-2023</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" s="2" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>A 47641-2023</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -572,7 +572,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44964</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44774</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43682</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>43866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44725</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44928</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43327</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43349</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43475</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>43517</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43522</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43580</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43588</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43634</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43712</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43733</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>43816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44018</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44026</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44047</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>44061</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>44081</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44155</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44174</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44208</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44273</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44286</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44312</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44379</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44426</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44509</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44644</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44663</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44693</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44819</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44819</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44837</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44858</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44858</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44858</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44867</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44872</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44872</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44893</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44894</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44944</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44958</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44959</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>44984</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45015</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45051</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45098</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45103</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45103</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45104</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>45104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>45105</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>45114</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45117</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>45117</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45117</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45117</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45119</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45128</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45128</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45155</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>45187</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45187</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45187</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45187</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45187</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45189</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>45203</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>45203</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>45203</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>45203</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>45203</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
